--- a/kamigakari/checklist.xlsx
+++ b/kamigakari/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/kamigakari/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EDF88B-461D-C14A-BC8B-71A08C96DCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4E4F1018-0573-4042-A53D-8A3E087BC4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="16360" xr2:uid="{6296B570-12DF-4247-BC24-5DE240D9398C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>year</t>
   </si>
@@ -106,6 +106,111 @@
   </si>
   <si>
     <t>four_divine_guardians.jpg</t>
+  </si>
+  <si>
+    <t>shinki_exodus.jpg</t>
+  </si>
+  <si>
+    <t>神機エクソダス</t>
+  </si>
+  <si>
+    <t>Shinki Exodus</t>
+  </si>
+  <si>
+    <t>神怪夜行</t>
+  </si>
+  <si>
+    <t>God's Mysterious Night</t>
+  </si>
+  <si>
+    <t>gods_mysterious_night.jpg</t>
+  </si>
+  <si>
+    <t>神魔ストラグル</t>
+  </si>
+  <si>
+    <t>Kamima Struggle</t>
+  </si>
+  <si>
+    <t>kamima_struggle.jpg</t>
+  </si>
+  <si>
+    <t>時空のオルタード</t>
+  </si>
+  <si>
+    <t>Space-Time Altered</t>
+  </si>
+  <si>
+    <t>space-time-altered.jpg</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>混沌神話との接触</t>
+  </si>
+  <si>
+    <t>Contact with Chaotic Myths</t>
+  </si>
+  <si>
+    <t>contact_with_chaotic_myths.jpg</t>
+  </si>
+  <si>
+    <t>邪神グリード</t>
+  </si>
+  <si>
+    <t>Evil God Greed</t>
+  </si>
+  <si>
+    <t>evil_god_greed.jpg</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
+    <t>黒剣のスレイヤー</t>
+  </si>
+  <si>
+    <t>Black Sword Slayer</t>
+  </si>
+  <si>
+    <t>black_sword_slayer.jpg</t>
+  </si>
+  <si>
+    <t>邪神グリード3 ドラゴン・メイデン</t>
+  </si>
+  <si>
+    <t>Evil God Greed 3: Dragon Maiden</t>
+  </si>
+  <si>
+    <t>evil_god_greed3.jpg</t>
+  </si>
+  <si>
+    <t>四神凶歌譚</t>
+  </si>
+  <si>
+    <t>Four Gods Bad Song Tan</t>
+  </si>
+  <si>
+    <t>four_gods.jpg</t>
+  </si>
+  <si>
+    <t>少女を焦がす熾火</t>
+  </si>
+  <si>
+    <t>A Blaze that Burns a Girl</t>
+  </si>
+  <si>
+    <t>blaze_burns_girl.jpg</t>
+  </si>
+  <si>
+    <t>邪神グリード2 デストロイヤー・ガール</t>
+  </si>
+  <si>
+    <t>Evil God Greed 2: Destroyer Girl</t>
+  </si>
+  <si>
+    <t>evil_god_greed2.jpg</t>
   </si>
 </sst>
 </file>
@@ -466,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3EA3FF-9E1C-BC40-9EDD-736CC73CAA37}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,22 +627,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -545,16 +650,16 @@
         <v>2014</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -565,16 +670,16 @@
         <v>2014</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -582,25 +687,248 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2014</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2014</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2015</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2015</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2016</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2016</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2016</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2017</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2018</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2019</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2020</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F17">
+    <sortCondition ref="A2:A17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>